--- a/experiments/241009/report_Hy_mix4.xlsx
+++ b/experiments/241009/report_Hy_mix4.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve">Mass</t>
   </si>
@@ -65,46 +65,82 @@
     <t xml:space="preserve">Hy</t>
   </si>
   <si>
-    <t xml:space="preserve">Neopentyl alcohol|3-pentanol|3-Methyl-2-butanol|1-Pentanol|(S)-2-Methyl-1-butanol|2-Pentanol|Isopentanol|2-Methyl-2-butanol|Ethylurea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0255527|HMDB0303831|HMDB0033777|HMDB0013036|HMDB0031527|HMDB0031599|HMDB0006007|HMDB0033772|HMDB0252088</t>
+    <t xml:space="preserve">Neopentyl alcohol|Isopentanol|2-Pentanol|(S)-2-Methyl-1-butanol|3-pentanol|1-Pentanol|3-Methyl-2-butanol|2-Methyl-2-butanol|Ethylurea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0255527|HMDB0006007|HMDB0031599|HMDB0031527|HMDB0303831|HMDB0013036|HMDB0033777|HMDB0033772|HMDB0252088</t>
   </si>
   <si>
     <t xml:space="preserve">C6H14O</t>
   </si>
   <si>
-    <t xml:space="preserve">4-Methyl-2-pentanol|(±)-3-Methyl-1-pentanol|2-Hexanol|2-Methylpentan-3-ol|Isohexanol|3-methyl-2-pentanol|3-Hexanol|3,3-Dimethyl-2-butanol|3-Methylpentan-3-ol|2-Methylpentan-2-ol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0246515|HMDB0033676|HMDB0061886|HMDB0302390|HMDB0059889|HMDB0062726|HMDB0031493|HMDB0245993|HMDB0302446|HMDB0302442</t>
+    <t xml:space="preserve">4-Methyl-2-pentanol|3-methyl-2-pentanol|3-Hexanol|2-Hexanol|1-Hexanol|(±)-3-Methyl-1-pentanol|Isohexanol|2-Methylpentan-3-ol|2-Methylpentan-2-ol|3,3-Dimethyl-2-butanol|3-Methylpentan-3-ol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0246515|HMDB0062726|HMDB0031493|HMDB0061886|HMDB0012971|HMDB0033676|HMDB0059889|HMDB0302390|HMDB0302442|HMDB0245993|HMDB0302446</t>
   </si>
   <si>
     <t xml:space="preserve">C7H16O</t>
   </si>
   <si>
-    <t xml:space="preserve">xi-3-Heptanol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0031481</t>
+    <t xml:space="preserve">1-Heptanol|xi-3-Heptanol|(±)-2-Heptanol|4-methyl-1-hexanol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0031479|HMDB0031481|HMDB0033908|HMDB0303837</t>
   </si>
   <si>
     <t xml:space="preserve">C9H20O|C7H16N2O</t>
   </si>
   <si>
-    <t xml:space="preserve">2-Octanol, 2-methyl-|Diisobutylcarbinol|4-(Aminomethyl)-1-methylpiperidin-4-ol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0245214|HMDB0031153|HMDB0246299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C17H24N2O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pilsicainide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0256549</t>
+    <t xml:space="preserve">2-Octanol, 2-methyl-|Diisobutylcarbinol|1-Nonanol|3-Nonanol|2-Nonanol|4-Methyloctan-1-ol|(±)-3,5,5-Trimethyl-1-hexanol|4-(Aminomethyl)-1-methylpiperidin-4-ol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0245214|HMDB0031153|HMDB0031265|HMDB0031732|HMDB0033916|HMDB0246514|HMDB0031198|HMDB0246299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C18H38O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Octadecanol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0002350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C15H28O4|C18H24O2|C19H28O|C17H24N2O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7(14)-Bisabolene-2,3,10,11-tetrol|(8R,9S,13S,14S)-3-Hydroxy-13-methyl-4,6,7,8,9,11,12,14,15,16-decahydro-3H-cyclopenta[a]phenanthren-17-one|Estradiol|17alpha-Estradiol|1,3,5(10)-Estratriene-3,17 beta-diol|5,16-Androstadien-3beta-ol|Pilsicainide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0035918|HMDB0260179|HMDB0000151|HMDB0000429|HMDB0244189|HMDB0248392|HMDB0256549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19H32O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5a-Androstan-3b-ol|(3R)-10,13-Dimethyl-2,3,4,5,6,7,8,9,11,12,14,15,16,17-tetradecahydro-1H-cyclopenta[a]phenanthren-3-ol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0005830|HMDB0246254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19H28O2|C18H24O3|C15H28O5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(8R,9S,10R,13S,14S,17S)-17-Hydroxy-11,13-dimethyl-2,6,7,8,9,10,11,12,14,15,16,17-dodecahydro-1H-cyclopenta[a]phenanthren-3-one|7A-Methyl-19-nortestosterone|4-Hydroxyestradiol|4-hydroxystradiol|2-Hydroxyestradiol|1,3,5[10]-Estratriene-2,3-17 beta-triol|Estriol|16b-Hydroxyestradiol|17-Epiestriol|16,17-Epiestriol|Dehydroepiandrosterone|Dehydroandrosterone|4-Dihydroboldenone|Testosterone|Epitestosterone|Testosterone-d3|Normethandrone|7alpha-hydroxyestradiol|6-Hydroxypentadecanedioic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0260175|HMDB0253192|HMDB0005896|HMDB0060999|HMDB0000338|HMDB0244190|HMDB0000153|HMDB0000347|HMDB0000356|HMDB0000431|HMDB0000077|HMDB0005962|HMDB0006035|HMDB0000234|HMDB0000628|HMDB0242698|HMDB0255746|HMDB0062741|HMDB0031885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19H30O2|C15H30O5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Androstendiol|Androst-5-ene-3beta,17beta-diol|4-Androstenediol|Androsterone|Epiandrosterone|Etiocholanolone|Epietiocholanolone|3-alpha-hydroxy-5-beta-androstan-17-one|4-Androstene-3,17-diol|(8R,9R,10R,13S,14S)-10,13-Dimethyl-4,5,6,7,8,9,11,12,14,15,16,17-dodecahydro-3H-cyclopenta[a]phenanthrene-3,17-diol|5-Androstenediol|Dihydrotestosterone|5b-Dihydrotestosterone|5beta-Dihydroepitestosterone|(17beta)-17-Hydroxyandrostan-3-one|Glycerol 1-(5-hydroxydodecanoate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0248415|HMDB0244754|HMDB0005849|HMDB0000031|HMDB0000365|HMDB0000490|HMDB0000546|HMDB0245800|HMDB0246370|HMDB0257771|HMDB0003818|HMDB0002961|HMDB0006770|HMDB0062608|HMDB0243561|HMDB0040168</t>
   </si>
 </sst>
 </file>
@@ -719,15 +755,21 @@
       <c r="B7" t="n">
         <v>734.25799999998</v>
       </c>
-      <c r="C7"/>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
       <c r="D7" t="s">
         <v>16</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
-      <c r="F7"/>
-      <c r="G7"/>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
       <c r="H7" t="n">
         <v>986909.085874546</v>
       </c>
@@ -761,7 +803,7 @@
         <v>520.29100000002</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -770,10 +812,10 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H8" t="n">
         <v>14750.824491588</v>
@@ -807,15 +849,21 @@
       <c r="B9" t="n">
         <v>694.81399999998</v>
       </c>
-      <c r="C9"/>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
       <c r="D9" t="s">
         <v>16</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
-      <c r="F9"/>
-      <c r="G9"/>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
       <c r="H9" t="n">
         <v>175547.005486408</v>
       </c>
@@ -889,15 +937,21 @@
       <c r="B11" t="n">
         <v>646.50400000002</v>
       </c>
-      <c r="C11"/>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
       <c r="D11" t="s">
         <v>16</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
       </c>
-      <c r="F11"/>
-      <c r="G11"/>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
       <c r="H11" t="n">
         <v>32291.2858743636</v>
       </c>
@@ -930,15 +984,21 @@
       <c r="B12" t="n">
         <v>570.24499999998</v>
       </c>
-      <c r="C12"/>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
       <c r="D12" t="s">
         <v>16</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
-      <c r="F12"/>
-      <c r="G12"/>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
       <c r="H12" t="n">
         <v>35596.2036812973</v>
       </c>

--- a/experiments/241009/report_Hy_mix4.xlsx
+++ b/experiments/241009/report_Hy_mix4.xlsx
@@ -1,160 +1,180 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fudan\Projects\2024\MultichannelR\Progress\build_package\MultichannelR\experiments\241009\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2A061A-8885-4B3B-8C43-D89AB727897E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
-  <si>
-    <t xml:space="preserve">Mass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TagNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rmse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C5H12O|C3H8N2O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neopentyl alcohol|Isopentanol|2-Pentanol|(S)-2-Methyl-1-butanol|3-pentanol|1-Pentanol|3-Methyl-2-butanol|2-Methyl-2-butanol|Ethylurea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0255527|HMDB0006007|HMDB0031599|HMDB0031527|HMDB0303831|HMDB0013036|HMDB0033777|HMDB0033772|HMDB0252088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C6H14O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-Methyl-2-pentanol|3-methyl-2-pentanol|3-Hexanol|2-Hexanol|1-Hexanol|(±)-3-Methyl-1-pentanol|Isohexanol|2-Methylpentan-3-ol|2-Methylpentan-2-ol|3,3-Dimethyl-2-butanol|3-Methylpentan-3-ol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0246515|HMDB0062726|HMDB0031493|HMDB0061886|HMDB0012971|HMDB0033676|HMDB0059889|HMDB0302390|HMDB0302442|HMDB0245993|HMDB0302446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C7H16O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-Heptanol|xi-3-Heptanol|(±)-2-Heptanol|4-methyl-1-hexanol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0031479|HMDB0031481|HMDB0033908|HMDB0303837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C9H20O|C7H16N2O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-Octanol, 2-methyl-|Diisobutylcarbinol|1-Nonanol|3-Nonanol|2-Nonanol|4-Methyloctan-1-ol|(±)-3,5,5-Trimethyl-1-hexanol|4-(Aminomethyl)-1-methylpiperidin-4-ol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0245214|HMDB0031153|HMDB0031265|HMDB0031732|HMDB0033916|HMDB0246514|HMDB0031198|HMDB0246299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C18H38O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Octadecanol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0002350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C15H28O4|C18H24O2|C19H28O|C17H24N2O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7(14)-Bisabolene-2,3,10,11-tetrol|(8R,9S,13S,14S)-3-Hydroxy-13-methyl-4,6,7,8,9,11,12,14,15,16-decahydro-3H-cyclopenta[a]phenanthren-17-one|Estradiol|17alpha-Estradiol|1,3,5(10)-Estratriene-3,17 beta-diol|5,16-Androstadien-3beta-ol|Pilsicainide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0035918|HMDB0260179|HMDB0000151|HMDB0000429|HMDB0244189|HMDB0248392|HMDB0256549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C19H32O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5a-Androstan-3b-ol|(3R)-10,13-Dimethyl-2,3,4,5,6,7,8,9,11,12,14,15,16,17-tetradecahydro-1H-cyclopenta[a]phenanthren-3-ol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0005830|HMDB0246254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C19H28O2|C18H24O3|C15H28O5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(8R,9S,10R,13S,14S,17S)-17-Hydroxy-11,13-dimethyl-2,6,7,8,9,10,11,12,14,15,16,17-dodecahydro-1H-cyclopenta[a]phenanthren-3-one|7A-Methyl-19-nortestosterone|4-Hydroxyestradiol|4-hydroxystradiol|2-Hydroxyestradiol|1,3,5[10]-Estratriene-2,3-17 beta-triol|Estriol|16b-Hydroxyestradiol|17-Epiestriol|16,17-Epiestriol|Dehydroepiandrosterone|Dehydroandrosterone|4-Dihydroboldenone|Testosterone|Epitestosterone|Testosterone-d3|Normethandrone|7alpha-hydroxyestradiol|6-Hydroxypentadecanedioic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0260175|HMDB0253192|HMDB0005896|HMDB0060999|HMDB0000338|HMDB0244190|HMDB0000153|HMDB0000347|HMDB0000356|HMDB0000431|HMDB0000077|HMDB0005962|HMDB0006035|HMDB0000234|HMDB0000628|HMDB0242698|HMDB0255746|HMDB0062741|HMDB0031885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C19H30O2|C15H30O5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Androstendiol|Androst-5-ene-3beta,17beta-diol|4-Androstenediol|Androsterone|Epiandrosterone|Etiocholanolone|Epietiocholanolone|3-alpha-hydroxy-5-beta-androstan-17-one|4-Androstene-3,17-diol|(8R,9R,10R,13S,14S)-10,13-Dimethyl-4,5,6,7,8,9,11,12,14,15,16,17-dodecahydro-3H-cyclopenta[a]phenanthrene-3,17-diol|5-Androstenediol|Dihydrotestosterone|5b-Dihydrotestosterone|5beta-Dihydroepitestosterone|(17beta)-17-Hydroxyandrostan-3-one|Glycerol 1-(5-hydroxydodecanoate)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0248415|HMDB0244754|HMDB0005849|HMDB0000031|HMDB0000365|HMDB0000490|HMDB0000546|HMDB0245800|HMDB0246370|HMDB0257771|HMDB0003818|HMDB0002961|HMDB0006770|HMDB0062608|HMDB0243561|HMDB0040168</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>Rt</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>TagNumber</t>
+  </si>
+  <si>
+    <t>Metabolites</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>1_1</t>
+  </si>
+  <si>
+    <t>1_2</t>
+  </si>
+  <si>
+    <t>1_3</t>
+  </si>
+  <si>
+    <t>1_4</t>
+  </si>
+  <si>
+    <t>1_5</t>
+  </si>
+  <si>
+    <t>1_6</t>
+  </si>
+  <si>
+    <t>mae</t>
+  </si>
+  <si>
+    <t>rmse</t>
+  </si>
+  <si>
+    <t>C5H12O|C3H8N2O</t>
+  </si>
+  <si>
+    <t>Hy</t>
+  </si>
+  <si>
+    <t>Neopentyl alcohol|Isopentanol|2-Pentanol|(S)-2-Methyl-1-butanol|3-pentanol|1-Pentanol|3-Methyl-2-butanol|2-Methyl-2-butanol|Ethylurea</t>
+  </si>
+  <si>
+    <t>HMDB0255527|HMDB0006007|HMDB0031599|HMDB0031527|HMDB0303831|HMDB0013036|HMDB0033777|HMDB0033772|HMDB0252088</t>
+  </si>
+  <si>
+    <t>C6H14O</t>
+  </si>
+  <si>
+    <t>4-Methyl-2-pentanol|3-methyl-2-pentanol|3-Hexanol|2-Hexanol|1-Hexanol|(±)-3-Methyl-1-pentanol|Isohexanol|2-Methylpentan-3-ol|2-Methylpentan-2-ol|3,3-Dimethyl-2-butanol|3-Methylpentan-3-ol</t>
+  </si>
+  <si>
+    <t>HMDB0246515|HMDB0062726|HMDB0031493|HMDB0061886|HMDB0012971|HMDB0033676|HMDB0059889|HMDB0302390|HMDB0302442|HMDB0245993|HMDB0302446</t>
+  </si>
+  <si>
+    <t>C7H16O</t>
+  </si>
+  <si>
+    <t>1-Heptanol|xi-3-Heptanol|(±)-2-Heptanol|4-methyl-1-hexanol</t>
+  </si>
+  <si>
+    <t>HMDB0031479|HMDB0031481|HMDB0033908|HMDB0303837</t>
+  </si>
+  <si>
+    <t>C9H20O|C7H16N2O</t>
+  </si>
+  <si>
+    <t>2-Octanol, 2-methyl-|Diisobutylcarbinol|1-Nonanol|3-Nonanol|2-Nonanol|4-Methyloctan-1-ol|(±)-3,5,5-Trimethyl-1-hexanol|4-(Aminomethyl)-1-methylpiperidin-4-ol</t>
+  </si>
+  <si>
+    <t>HMDB0245214|HMDB0031153|HMDB0031265|HMDB0031732|HMDB0033916|HMDB0246514|HMDB0031198|HMDB0246299</t>
+  </si>
+  <si>
+    <t>C18H38O</t>
+  </si>
+  <si>
+    <t>Octadecanol</t>
+  </si>
+  <si>
+    <t>HMDB0002350</t>
+  </si>
+  <si>
+    <t>C15H28O4|C18H24O2|C19H28O|C17H24N2O</t>
+  </si>
+  <si>
+    <t>7(14)-Bisabolene-2,3,10,11-tetrol|(8R,9S,13S,14S)-3-Hydroxy-13-methyl-4,6,7,8,9,11,12,14,15,16-decahydro-3H-cyclopenta[a]phenanthren-17-one|Estradiol|17alpha-Estradiol|1,3,5(10)-Estratriene-3,17 beta-diol|5,16-Androstadien-3beta-ol|Pilsicainide</t>
+  </si>
+  <si>
+    <t>HMDB0035918|HMDB0260179|HMDB0000151|HMDB0000429|HMDB0244189|HMDB0248392|HMDB0256549</t>
+  </si>
+  <si>
+    <t>C19H32O</t>
+  </si>
+  <si>
+    <t>5a-Androstan-3b-ol|(3R)-10,13-Dimethyl-2,3,4,5,6,7,8,9,11,12,14,15,16,17-tetradecahydro-1H-cyclopenta[a]phenanthren-3-ol</t>
+  </si>
+  <si>
+    <t>HMDB0005830|HMDB0246254</t>
+  </si>
+  <si>
+    <t>C19H28O2|C18H24O3|C15H28O5</t>
+  </si>
+  <si>
+    <t>(8R,9S,10R,13S,14S,17S)-17-Hydroxy-11,13-dimethyl-2,6,7,8,9,10,11,12,14,15,16,17-dodecahydro-1H-cyclopenta[a]phenanthren-3-one|7A-Methyl-19-nortestosterone|4-Hydroxyestradiol|4-hydroxystradiol|2-Hydroxyestradiol|1,3,5[10]-Estratriene-2,3-17 beta-triol|Estriol|16b-Hydroxyestradiol|17-Epiestriol|16,17-Epiestriol|Dehydroepiandrosterone|Dehydroandrosterone|4-Dihydroboldenone|Testosterone|Epitestosterone|Testosterone-d3|Normethandrone|7alpha-hydroxyestradiol|6-Hydroxypentadecanedioic acid</t>
+  </si>
+  <si>
+    <t>HMDB0260175|HMDB0253192|HMDB0005896|HMDB0060999|HMDB0000338|HMDB0244190|HMDB0000153|HMDB0000347|HMDB0000356|HMDB0000431|HMDB0000077|HMDB0005962|HMDB0006035|HMDB0000234|HMDB0000628|HMDB0242698|HMDB0255746|HMDB0062741|HMDB0031885</t>
+  </si>
+  <si>
+    <t>C19H30O2|C15H30O5</t>
+  </si>
+  <si>
+    <t>Androstendiol|Androst-5-ene-3beta,17beta-diol|4-Androstenediol|Androsterone|Epiandrosterone|Etiocholanolone|Epietiocholanolone|3-alpha-hydroxy-5-beta-androstan-17-one|4-Androstene-3,17-diol|(8R,9R,10R,13S,14S)-10,13-Dimethyl-4,5,6,7,8,9,11,12,14,15,16,17-dodecahydro-3H-cyclopenta[a]phenanthrene-3,17-diol|5-Androstenediol|Dihydrotestosterone|5b-Dihydrotestosterone|5beta-Dihydroepitestosterone|(17beta)-17-Hydroxyandrostan-3-one|Glycerol 1-(5-hydroxydodecanoate)</t>
+  </si>
+  <si>
+    <t>HMDB0248415|HMDB0244754|HMDB0005849|HMDB0000031|HMDB0000365|HMDB0000490|HMDB0000546|HMDB0245800|HMDB0246370|HMDB0257771|HMDB0003818|HMDB0002961|HMDB0006770|HMDB0062608|HMDB0243561|HMDB0040168</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,13 +197,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -465,14 +495,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -519,12 +551,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>88.0929452536981</v>
-      </c>
-      <c r="B2" t="n">
-        <v>468.25399999998</v>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>88.092945253698105</v>
+      </c>
+      <c r="B2">
+        <v>468.25399999998001</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -532,7 +564,7 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
@@ -541,36 +573,36 @@
       <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="n">
-        <v>68025.9287962714</v>
-      </c>
-      <c r="I2" t="n">
-        <v>53458.122094706</v>
-      </c>
-      <c r="J2" t="n">
-        <v>66443.2918935966</v>
-      </c>
-      <c r="K2" t="n">
-        <v>64968.3420826913</v>
-      </c>
-      <c r="L2" t="n">
-        <v>60542.8664603952</v>
-      </c>
-      <c r="M2" t="n">
-        <v>63520.4333123871</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.0996594908849266</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="H2">
+        <v>68025.928796271401</v>
+      </c>
+      <c r="I2">
+        <v>53458.122094705999</v>
+      </c>
+      <c r="J2">
+        <v>66443.291893596601</v>
+      </c>
+      <c r="K2">
+        <v>64968.342082691299</v>
+      </c>
+      <c r="L2">
+        <v>60542.866460395198</v>
+      </c>
+      <c r="M2">
+        <v>63520.433312387097</v>
+      </c>
+      <c r="N2">
+        <v>9.9659490884926594E-2</v>
+      </c>
+      <c r="O2">
         <v>0.122722338072318</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>102.109131801457</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>508.18699999998</v>
       </c>
       <c r="C3" t="s">
@@ -579,7 +611,7 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
@@ -588,36 +620,36 @@
       <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>1667446.98882751</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>1291125.7581857</v>
       </c>
-      <c r="J3" t="n">
-        <v>1580330.56011132</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1478724.45582285</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1398756.17261149</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="J3">
+        <v>1580330.5601113201</v>
+      </c>
+      <c r="K3">
+        <v>1478724.4558228501</v>
+      </c>
+      <c r="L3">
+        <v>1398756.1726114899</v>
+      </c>
+      <c r="M3">
         <v>1746159.51173604</v>
       </c>
-      <c r="N3" t="n">
-        <v>0.13743772003194</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.155675747328532</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>116.124805482365</v>
-      </c>
-      <c r="B4" t="n">
+      <c r="N3">
+        <v>0.13743772003193999</v>
+      </c>
+      <c r="O3">
+        <v>0.15567574732853201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>116.12480548236501</v>
+      </c>
+      <c r="B4">
         <v>542.22</v>
       </c>
       <c r="C4" t="s">
@@ -626,7 +658,7 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
@@ -635,37 +667,37 @@
       <c r="G4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>528986.53825975</v>
       </c>
-      <c r="I4" t="n">
-        <v>416580.29726449</v>
-      </c>
-      <c r="J4" t="n">
-        <v>504667.42889277</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="I4">
+        <v>416580.29726448999</v>
+      </c>
+      <c r="J4">
+        <v>504667.42889277003</v>
+      </c>
+      <c r="K4">
         <v>482026.846767988</v>
       </c>
-      <c r="L4" t="n">
-        <v>449084.445403084</v>
-      </c>
-      <c r="M4" t="n">
-        <v>523528.462178051</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="L4">
+        <v>449084.44540308398</v>
+      </c>
+      <c r="M4">
+        <v>523528.46217805101</v>
+      </c>
+      <c r="N4">
         <v>0.112823937303445</v>
       </c>
-      <c r="O4" t="n">
-        <v>0.132404808759389</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="O4">
+        <v>0.13240480875938901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>144.151842364153</v>
       </c>
-      <c r="B5" t="n">
-        <v>615.432</v>
+      <c r="B5">
+        <v>615.43200000000002</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
@@ -673,7 +705,7 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
@@ -682,78 +714,75 @@
       <c r="G5" t="s">
         <v>27</v>
       </c>
-      <c r="H5" t="n">
-        <v>26299.0030313058</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="H5">
+        <v>26299.003031305801</v>
+      </c>
+      <c r="I5">
         <v>434116.921879331</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>524435.22932821</v>
       </c>
-      <c r="K5" t="n">
-        <v>499851.430022009</v>
-      </c>
-      <c r="L5" t="n">
-        <v>473534.52807037</v>
-      </c>
-      <c r="M5" t="n">
-        <v>284325.146997762</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.538844172049786</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.657112841544452</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>256.283245213019</v>
-      </c>
-      <c r="B6" t="n">
-        <v>722.472</v>
-      </c>
-      <c r="C6"/>
+      <c r="K5">
+        <v>499851.43002200901</v>
+      </c>
+      <c r="L5">
+        <v>473534.52807037003</v>
+      </c>
+      <c r="M5">
+        <v>284325.14699776203</v>
+      </c>
+      <c r="N5">
+        <v>0.53884417204978596</v>
+      </c>
+      <c r="O5">
+        <v>0.65711284154445204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>256.28324521301897</v>
+      </c>
+      <c r="B6">
+        <v>722.47199999999998</v>
+      </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6" t="n">
-        <v>564342.627589574</v>
-      </c>
-      <c r="I6" t="n">
-        <v>477956.221503303</v>
-      </c>
-      <c r="J6" t="n">
-        <v>657132.812389468</v>
-      </c>
-      <c r="K6" t="n">
-        <v>586946.322129139</v>
-      </c>
-      <c r="L6" t="n">
-        <v>617307.19753835</v>
-      </c>
-      <c r="M6" t="n">
-        <v>591977.326338796</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="H6">
+        <v>564342.62758957397</v>
+      </c>
+      <c r="I6">
+        <v>477956.22150330298</v>
+      </c>
+      <c r="J6">
+        <v>657132.81238946796</v>
+      </c>
+      <c r="K6">
+        <v>586946.32212913898</v>
+      </c>
+      <c r="L6">
+        <v>617307.19753835001</v>
+      </c>
+      <c r="M6">
+        <v>591977.32633879595</v>
+      </c>
+      <c r="N6">
         <v>0.117618076202338</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>0.140335656335975</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>270.298070133098</v>
-      </c>
-      <c r="B7" t="n">
-        <v>734.25799999998</v>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>270.29807013309801</v>
+      </c>
+      <c r="B7">
+        <v>734.25799999998003</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -761,7 +790,7 @@
       <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
@@ -770,37 +799,37 @@
       <c r="G7" t="s">
         <v>30</v>
       </c>
-      <c r="H7" t="n">
-        <v>986909.085874546</v>
-      </c>
-      <c r="I7" t="n">
-        <v>823745.708053602</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="H7">
+        <v>986909.08587454597</v>
+      </c>
+      <c r="I7">
+        <v>823745.70805360202</v>
+      </c>
+      <c r="J7">
         <v>1072081.0057703</v>
       </c>
-      <c r="K7" t="n">
-        <v>970031.797566242</v>
-      </c>
-      <c r="L7" t="n">
-        <v>962617.861303342</v>
-      </c>
-      <c r="M7" t="n">
+      <c r="K7">
+        <v>970031.79756624205</v>
+      </c>
+      <c r="L7">
+        <v>962617.86130334204</v>
+      </c>
+      <c r="M7">
         <v>1027999.66435716</v>
       </c>
-      <c r="N7" t="n">
-        <v>0.098334216505411</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="N7">
+        <v>9.8334216505411007E-2</v>
+      </c>
+      <c r="O7">
         <v>0.120524623964016</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>272.184072268227</v>
       </c>
-      <c r="B8" t="n">
-        <v>520.29100000002</v>
+      <c r="B8">
+        <v>520.29100000001995</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
@@ -808,7 +837,7 @@
       <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
@@ -817,37 +846,37 @@
       <c r="G8" t="s">
         <v>33</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>14750.824491588</v>
       </c>
-      <c r="I8" t="n">
-        <v>12081.8244466273</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="I8">
+        <v>12081.824446627301</v>
+      </c>
+      <c r="J8">
         <v>14168.0205018085</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>15878.5062053663</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>13116.2231294307</v>
       </c>
-      <c r="M8" t="n">
-        <v>12633.2018456912</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="M8">
+        <v>12633.201845691199</v>
+      </c>
+      <c r="N8">
         <v>0.129953572996303</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>0.148491336856796</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>276.251773222735</v>
-      </c>
-      <c r="B9" t="n">
-        <v>694.81399999998</v>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>276.25177322273498</v>
+      </c>
+      <c r="B9">
+        <v>694.81399999997996</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -855,7 +884,7 @@
       <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
@@ -864,78 +893,75 @@
       <c r="G9" t="s">
         <v>36</v>
       </c>
-      <c r="H9" t="n">
-        <v>175547.005486408</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="H9">
+        <v>175547.00548640799</v>
+      </c>
+      <c r="I9">
         <v>149935.286970958</v>
       </c>
-      <c r="J9" t="n">
-        <v>181837.918519619</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J9">
+        <v>181837.91851961901</v>
+      </c>
+      <c r="K9">
         <v>173413.743124459</v>
       </c>
-      <c r="L9" t="n">
-        <v>164938.883259198</v>
-      </c>
-      <c r="M9" t="n">
-        <v>186810.684974699</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.0906233797009883</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.10636610565982</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="L9">
+        <v>164938.88325919799</v>
+      </c>
+      <c r="M9">
+        <v>186810.68497469899</v>
+      </c>
+      <c r="N9">
+        <v>9.0623379700988299E-2</v>
+      </c>
+      <c r="O9">
+        <v>0.10636610565982001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>284.314581714285</v>
       </c>
-      <c r="B10" t="n">
-        <v>744.648</v>
-      </c>
-      <c r="C10"/>
+      <c r="B10">
+        <v>744.64800000000002</v>
+      </c>
       <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10" t="n">
-        <v>679423.492831056</v>
-      </c>
-      <c r="I10" t="n">
-        <v>622663.02929477</v>
-      </c>
-      <c r="J10" t="n">
-        <v>723692.882313767</v>
-      </c>
-      <c r="K10" t="n">
-        <v>710667.101574834</v>
-      </c>
-      <c r="L10" t="n">
-        <v>646562.499059173</v>
-      </c>
-      <c r="M10" t="n">
-        <v>729152.44509494</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.076309350247975</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.0881905570317004</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>288.182655571438</v>
-      </c>
-      <c r="B11" t="n">
-        <v>646.50400000002</v>
+      <c r="H10">
+        <v>679423.49283105601</v>
+      </c>
+      <c r="I10">
+        <v>622663.02929476998</v>
+      </c>
+      <c r="J10">
+        <v>723692.88231376698</v>
+      </c>
+      <c r="K10">
+        <v>710667.10157483397</v>
+      </c>
+      <c r="L10">
+        <v>646562.49905917305</v>
+      </c>
+      <c r="M10">
+        <v>729152.44509494002</v>
+      </c>
+      <c r="N10">
+        <v>7.6309350247975E-2</v>
+      </c>
+      <c r="O10">
+        <v>8.8190557031700395E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>288.18265557143798</v>
+      </c>
+      <c r="B11">
+        <v>646.50400000002003</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -943,7 +969,7 @@
       <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>2</v>
       </c>
       <c r="F11" t="s">
@@ -952,36 +978,36 @@
       <c r="G11" t="s">
         <v>39</v>
       </c>
-      <c r="H11" t="n">
-        <v>32291.2858743636</v>
-      </c>
-      <c r="I11" t="n">
-        <v>22350.6949314469</v>
-      </c>
-      <c r="J11" t="n">
-        <v>33221.9254146644</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="H11">
+        <v>32291.285874363599</v>
+      </c>
+      <c r="I11">
+        <v>22350.694931446898</v>
+      </c>
+      <c r="J11">
+        <v>33221.925414664402</v>
+      </c>
+      <c r="K11">
         <v>26852.3219028618</v>
       </c>
-      <c r="L11" t="n">
-        <v>25453.5590725837</v>
-      </c>
-      <c r="M11" t="n">
+      <c r="L11">
+        <v>25453.559072583699</v>
+      </c>
+      <c r="M11">
         <v>27594.8456499598</v>
       </c>
-      <c r="N11" t="n">
-        <v>0.188449904808235</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.220253031075958</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>290.230873706543</v>
-      </c>
-      <c r="B12" t="n">
+      <c r="N11">
+        <v>0.18844990480823501</v>
+      </c>
+      <c r="O11">
+        <v>0.22025303107595801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>290.23087370654298</v>
+      </c>
+      <c r="B12">
         <v>570.24499999998</v>
       </c>
       <c r="C12" t="s">
@@ -990,7 +1016,7 @@
       <c r="D12" t="s">
         <v>16</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
@@ -999,33 +1025,34 @@
       <c r="G12" t="s">
         <v>42</v>
       </c>
-      <c r="H12" t="n">
-        <v>35596.2036812973</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="H12">
+        <v>35596.203681297302</v>
+      </c>
+      <c r="I12">
         <v>31172.3183765213</v>
       </c>
-      <c r="J12" t="n">
-        <v>32140.0079998346</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J12">
+        <v>32140.007999834601</v>
+      </c>
+      <c r="K12">
         <v>30709.2529369162</v>
       </c>
-      <c r="L12" t="n">
-        <v>30491.8204345683</v>
-      </c>
-      <c r="M12" t="n">
-        <v>29216.6046346889</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.0820906335097909</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="L12">
+        <v>30491.820434568301</v>
+      </c>
+      <c r="M12">
+        <v>29216.604634688902</v>
+      </c>
+      <c r="N12">
+        <v>8.20906335097909E-2</v>
+      </c>
+      <c r="O12">
         <v>0.102798869526555</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>